--- a/Data_frame/balancos_definitivos/BECE3.xlsx
+++ b/Data_frame/balancos_definitivos/BECE3.xlsx
@@ -6554,9 +6554,7 @@
       <c r="D58" t="n">
         <v>46344</v>
       </c>
-      <c r="E58" t="n">
-        <v>-134956.992</v>
-      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
         <v>67955</v>
       </c>
@@ -6567,7 +6565,7 @@
         <v>57297</v>
       </c>
       <c r="I58" t="n">
-        <v>53405.008</v>
+        <v>53405</v>
       </c>
       <c r="J58" t="n">
         <v>37853</v>
@@ -6615,7 +6613,7 @@
         <v>79108</v>
       </c>
       <c r="Y58" t="n">
-        <v>81308</v>
+        <v>81307.992</v>
       </c>
       <c r="Z58" t="n">
         <v>61400</v>
@@ -6658,9 +6656,7 @@
       <c r="D59" t="n">
         <v>-37885</v>
       </c>
-      <c r="E59" t="n">
-        <v>66512</v>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
         <v>-88762</v>
       </c>
@@ -6762,9 +6758,7 @@
       <c r="D60" t="n">
         <v>8459</v>
       </c>
-      <c r="E60" t="n">
-        <v>-68445</v>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
         <v>-20807</v>
       </c>
@@ -6847,7 +6841,7 @@
         <v>54406</v>
       </c>
       <c r="AG60" t="n">
-        <v>58544</v>
+        <v>58543.992</v>
       </c>
       <c r="AH60" t="n">
         <v>59369</v>
@@ -6866,9 +6860,7 @@
       <c r="D61" t="n">
         <v>-11256</v>
       </c>
-      <c r="E61" t="n">
-        <v>20124</v>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
         <v>86026</v>
       </c>
@@ -6970,9 +6962,7 @@
       <c r="D62" t="n">
         <v>5178</v>
       </c>
-      <c r="E62" t="n">
-        <v>-14413</v>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
         <v>4452</v>
       </c>
@@ -7074,9 +7064,7 @@
       <c r="D63" t="n">
         <v>-14105</v>
       </c>
-      <c r="E63" t="n">
-        <v>60303.992</v>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
         <v>-13344</v>
       </c>
@@ -7178,9 +7166,7 @@
       <c r="D64" t="n">
         <v>-8060</v>
       </c>
-      <c r="E64" t="n">
-        <v>6584</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
         <v>-12031</v>
       </c>
@@ -7282,9 +7268,7 @@
       <c r="D65" t="n">
         <v>-624</v>
       </c>
-      <c r="E65" t="n">
-        <v>1472</v>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
         <v>-982</v>
       </c>
@@ -7386,9 +7370,7 @@
       <c r="D66" t="n">
         <v>8442</v>
       </c>
-      <c r="E66" t="n">
-        <v>-30373</v>
-      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>108771</v>
       </c>
@@ -7490,9 +7472,7 @@
       <c r="D67" t="n">
         <v>-2087</v>
       </c>
-      <c r="E67" t="n">
-        <v>-3450</v>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
         <v>-840</v>
       </c>
@@ -7594,9 +7574,7 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
         <v>0</v>
       </c>
@@ -7698,9 +7676,7 @@
       <c r="D69" t="n">
         <v>-2797</v>
       </c>
-      <c r="E69" t="n">
-        <v>-48321.024</v>
-      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
         <v>65219</v>
       </c>
@@ -7802,9 +7778,7 @@
       <c r="D70" t="n">
         <v>-910</v>
       </c>
-      <c r="E70" t="n">
-        <v>341</v>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
         <v>-33601</v>
       </c>
@@ -7906,9 +7880,7 @@
       <c r="D71" t="n">
         <v>128</v>
       </c>
-      <c r="E71" t="n">
-        <v>252</v>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
         <v>1274</v>
       </c>
@@ -8010,9 +7982,7 @@
       <c r="D72" t="n">
         <v>-1038</v>
       </c>
-      <c r="E72" t="n">
-        <v>89</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
         <v>-34875</v>
       </c>
@@ -8114,9 +8084,7 @@
       <c r="D73" t="n">
         <v>-3707</v>
       </c>
-      <c r="E73" t="n">
-        <v>-47979.984</v>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
         <v>31618</v>
       </c>
@@ -8218,9 +8186,7 @@
       <c r="D74" t="n">
         <v>-52</v>
       </c>
-      <c r="E74" t="n">
-        <v>-13391</v>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
         <v>-166</v>
       </c>
@@ -8322,9 +8288,7 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
         <v>0</v>
       </c>
@@ -8426,9 +8390,7 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
         <v>0</v>
       </c>
@@ -8530,9 +8492,7 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
         <v>0</v>
       </c>
@@ -8634,9 +8594,7 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
         <v>0</v>
       </c>
@@ -8721,9 +8679,7 @@
       <c r="AG78" t="n">
         <v>0</v>
       </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8738,9 +8694,7 @@
       <c r="D79" t="n">
         <v>-3759</v>
       </c>
-      <c r="E79" t="n">
-        <v>-61370.992</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
         <v>31452</v>
       </c>
